--- a/similarities/split_global/harmonic_similarity_timestamps_150.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_150.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,714 +484,746 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_69</t>
+          <t>schubert-winterreise_200</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_163</t>
+          <t>schubert-winterreise_112</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min']]</t>
+          <t>['D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:42.360000', '0:00:50.360000')]</t>
+          <t>('0:00:24.280000', '0:00:51.080000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:07.700000', '0:00:12.060000')]</t>
+          <t>('0:01:52.240000', '0:01:54.880000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-69#t=42.36']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-200#t=24.28</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-163#t=7.7']</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-112#t=112.24</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr">
         <is>
           <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_53</t>
+          <t>schubert-winterreise_140</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_51</t>
+          <t>schubert-winterreise_99</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['E:maj/G#', 'E:maj/B', 'B:7', 'E:maj/G#']]</t>
+          <t>['G:7/C', 'G:(3,5,b7,b9)/C', 'C:min']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['C', 'C/G', 'G:7', 'C']]</t>
+          <t>['A:7', 'A:(3,5,b7,b9)/G', 'D:min/F']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:03:56.780000', '0:04:09.140000')]</t>
+          <t>('0:00:05.500000', '0:00:22.220000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:04:13', '0:04:20.200000')]</t>
+          <t>('0:02:33.420000', '0:02:36.600000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-53#t=236.78']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-140#t=5.5</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-51#t=253.0']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-99#t=153.42</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_79</t>
+          <t>schubert-winterreise_113</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_156</t>
+          <t>isophonics_57</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min']]</t>
+          <t>['F:maj', 'A#:maj', 'F:maj', 'A#:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['F#:min', 'B:min/F#', 'F#:min', 'C#:7', 'F#:min']]</t>
+          <t>['G', 'C', 'G', 'C', 'G']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:13.660000', '0:00:31.860000')]</t>
+          <t>('0:02:03.220000', '0:02:07.580000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:00.560000', '0:00:08.680000')]</t>
+          <t>('0:00:21.213174', '0:00:28.074671')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-79#t=13.66']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-113#t=123.22</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-156#t=0.56']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-57#t=21.213174</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_0</t>
+          <t>isophonics_224</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_258</t>
+          <t>isophonics_159</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['B:min', 'E:min/B', 'B:min']]</t>
+          <t>['E:7', 'A', 'E']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['E:min', 'A:min', 'E:min']]</t>
+          <t>['E:7', 'A', 'E/4']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:25.480000', '0:00:32.580000')]</t>
+          <t>('0:00:55.002834', '0:00:59.124376')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:00.506000', '0:00:08.175000')]</t>
+          <t>('0:00:48.277000', '0:00:54.481000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-0#t=25.48']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-224#t=55.002834</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-258#t=0.506']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-159#t=48.277</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>spotify:track:6dGnYIeXmHdcikdzNNDMm2</t>
         </is>
       </c>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_13</t>
+          <t>jaah_1</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_148</t>
+          <t>schubert-winterreise_111</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['B:maj', 'F#:7', 'B:maj', 'F#:7', 'B:maj']]</t>
+          <t>['Eb', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>['G:maj', 'D:7/C', 'G:maj/B']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:00.320000', '0:00:10.960000')]</t>
+          <t>('0:00:00.720000', '0:00:17.050000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:08.080000', '0:00:26.260000')]</t>
+          <t>('0:01:07.760000', '0:01:17.500000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-13#t=0.32']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-1#t=0.72</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-148#t=8.08']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-111#t=67.76</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_0</t>
+          <t>schubert-winterreise_41</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_156</t>
+          <t>schubert-winterreise_121</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'E:min/B', 'B:min']]</t>
+          <t>['B:min', 'F#:7/C#', 'B:min/D']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['F#:min', 'C#:7', 'F#:min'], ['F#:min', 'B:min/F#', 'F#:min']]</t>
+          <t>['C:min/G', 'G:7', 'C:min']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:01:14.100000', '0:01:20.040000'), ('0:00:25.480000', '0:00:32.580000')]</t>
+          <t>('0:00:00.660000', '0:00:02.680000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:03.320000', '0:00:08.680000'), ('0:00:00.560000', '0:00:04.260000')]</t>
+          <t>('0:00:26.960000', '0:00:33.500000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-0#t=74.1', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-0#t=25.48']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-41#t=0.66</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-156#t=3.32', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-156#t=0.56']</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-121#t=26.96</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>jaah_3</t>
+          <t>schubert-winterreise_213</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_160</t>
+          <t>schubert-winterreise_129</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['Ab', 'Eb', 'Bb:7'], ['F:7', 'Bb:7', 'Eb']]</t>
+          <t>['A:min', 'E:7/G#', 'A:min']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['Db:maj', 'Ab/3', 'Eb:7'], ['Bb:7', 'Eb:7', 'Ab:maj']]</t>
+          <t>['F:min', 'C:7', 'F:min']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:02:09.720000', '0:02:16.070000'), ('0:00:43.610000', '0:00:45.410000')]</t>
+          <t>('0:00:42.940000', '0:00:51.080000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:13.159000', '0:00:16.555000'), ('0:00:37.633000', '0:00:41.753000')]</t>
+          <t>('0:00:08.200000', '0:00:12.660000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-3#t=129.72', 'https://soundcloud.com/jacopo-de-berardinis/jaah-3#t=43.61']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-213#t=42.94</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-160#t=13.159', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-160#t=37.633']</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-129#t=8.2</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_35</t>
+          <t>schubert-winterreise_211</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_128</t>
+          <t>schubert-winterreise_137</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['D:min', 'G:7', 'C']]</t>
+          <t>['D:min/A', 'A:7', 'D:min']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['A:min/C', 'D:7', 'G:maj']]</t>
+          <t>['A:min', 'E:7', 'A:min']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:10.937548', '0:00:15.824081')]</t>
+          <t>('0:02:04.300000', '0:02:09.240000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:05.860000', '0:00:13.380000')]</t>
+          <t>('0:00:19.980000', '0:00:28.900000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-35#t=10.937548']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-211#t=124.3</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-128#t=5.86']</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:1dxbAIfCASqv6jix2R1Taj</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-137#t=19.98</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_3</t>
+          <t>schubert-winterreise_129</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_193</t>
+          <t>schubert-winterreise_0</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['G/3', 'D', 'G', 'D/3', 'E:min']]</t>
+          <t>['F:min', 'C:7', 'F:min']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['Eb', 'Bb', 'Eb', 'Bb/3', 'C:min']]</t>
+          <t>['B:min/F#', 'F#:7', 'B:min']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:24.934603', '0:00:30.472562')]</t>
+          <t>('0:00:08.200000', '0:00:12.660000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:18.932000', '0:00:25.282000')]</t>
+          <t>('0:01:14.100000', '0:01:20.040000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-3#t=24.934603']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-129#t=8.2</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-193#t=18.932']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-0#t=74.1</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>spotify:track:68BTFws92cRztMS1oQ7Ewj</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr"/>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_120</t>
+          <t>schubert-winterreise_73</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_80</t>
+          <t>isophonics_196</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:maj/A', 'A#:min'], ['A#:min', 'F:7/C', 'A#:min/C#']]</t>
+          <t>['G:maj/B', 'C:maj', 'G:maj/D']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min'], ['D:min/A', 'A:7', 'D:min']]</t>
+          <t>['D', 'G/5', 'D']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:12.600000', '0:00:17.860000'), ('0:00:02.600000', '0:00:04.500000')]</t>
+          <t>('0:01:05.200000', '0:01:07.500000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:02.640000', '0:00:07.300000'), ('0:02:10.840000', '0:02:15.980000')]</t>
+          <t>('0:00:12.707687', '0:00:25.501882')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-120#t=12.6', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-120#t=2.6']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-73#t=65.2</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-80#t=2.64', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-80#t=130.84']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-196#t=12.707687</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>jaah_1</t>
+          <t>schubert-winterreise_99</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_193</t>
+          <t>schubert-winterreise_40</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['Eb', 'Bb:7', 'Eb']]</t>
+          <t>['D:maj', 'G:maj', 'D:maj/F#']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['C/G', 'G:7', 'C']]</t>
+          <t>['D:maj/F#', 'G:maj', 'D:maj']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:00.720000', '0:00:17.050000')]</t>
+          <t>('0:01:15.800000', '0:01:19.600000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:04:11.500000', '0:04:17.660000')]</t>
+          <t>('0:01:00.040000', '0:01:07.080000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-1#t=0.72']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-99#t=75.8</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-193#t=251.5']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-40#t=60.04</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_181</t>
+          <t>schubert-winterreise_196</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_183</t>
+          <t>jaah_86</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['D#:maj/A#', 'A#:7', 'D#:maj']]</t>
+          <t>['D:7', 'G:maj', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['D', 'A:7', 'D']]</t>
+          <t>['F:7', 'Bb', 'F:7', 'Bb']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:01:05.280000', '0:01:14.480000')]</t>
+          <t>('0:00:12.860000', '0:00:26.220000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:01:09.520470', '0:01:14.942329')]</t>
+          <t>('0:00:12.430000', '0:00:17.230000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-181#t=65.28']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-196#t=12.86</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-183#t=69.52047']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-86#t=12.43</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>jaah_74</t>
+          <t>isophonics_269</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>jaah_35</t>
+          <t>schubert-winterreise_63</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['F:min7', 'Bb:7', 'Eb:7']]</t>
+          <t>['A:min', 'C', 'A:min']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['C:min7', 'F:7', 'Bb:7']]</t>
+          <t>['C:min/D#', 'D#/G', 'C:min/G']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:01:25.150000', '0:01:27.510000')]</t>
+          <t>('0:00:16.840000', '0:00:26.811000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:34.550000', '0:00:49.160000')]</t>
+          <t>('0:01:05.340000', '0:01:08.840000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-74#t=85.15']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-269#t=16.84</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-35#t=34.55']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-63#t=65.34</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>spotify:track:7JXfQmzQwnGvbAVnV9ODpn</t>
-        </is>
-      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_81</t>
+          <t>schubert-winterreise_141</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_6</t>
+          <t>isophonics_52</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['B', 'E/5', 'B', 'E/5']]</t>
+          <t>['F:maj', 'C:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['D', 'G/5', 'D', 'G/5']]</t>
+          <t>['G', 'D', 'G']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:55.629773', '0:01:10.444104')]</t>
+          <t>('0:00:00.780000', '0:00:24.860000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:20.432000', '0:00:24.332000')]</t>
+          <t>('0:01:07.100430', '0:01:15.018435')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-81#t=55.629773']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-141#t=0.78</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-6#t=20.432']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-52#t=67.10043</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_195</t>
+          <t>schubert-winterreise_194</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_205</t>
+          <t>schubert-winterreise_65</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['F:min', 'F#/A#', 'F:min/C'], ['G:hdim7/A#', 'C:7', 'F:min']]</t>
+          <t>['C:min', 'G:7/D', 'C:min/D#']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['G:min', 'G#:maj/C', 'G:min'], ['A:hdim7/D#', 'D:7', 'G:min']]</t>
+          <t>['D#:min', 'A#:7', 'D#:min']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:02:55.680000', '0:02:57.820000'), ('0:00:22.040000', '0:00:28.660000')]</t>
+          <t>('0:00:02', '0:00:04.320000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:43.780000', '0:00:46.440000'), ('0:01:41.320000', '0:01:54.060000')]</t>
+          <t>('0:00:09.100000', '0:00:13.860000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-195#t=175.68', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-195#t=22.04']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-194#t=2.0</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-205#t=43.78', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-205#t=101.32']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-65#t=9.1</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
